--- a/CypressAutomation/cypress_concepts.xlsx
+++ b/CypressAutomation/cypress_concepts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CypressAutomation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cypress\CypressAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
   <si>
     <t>thriough command line, Cypress runs in headless in electron</t>
   </si>
@@ -461,13 +461,169 @@
   </si>
   <si>
     <t>java -jar jenkins.war -httpPort=8080</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">/// </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>reference</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>types</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"cypress"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>// ***********************************************************</t>
+  </si>
+  <si>
+    <t>// This example plugins/index.js can be used to load plugins</t>
+  </si>
+  <si>
+    <t>//</t>
+  </si>
+  <si>
+    <t>// You can change the location of this file or turn off loading</t>
+  </si>
+  <si>
+    <t>// the plugins file with the 'pluginsFile' configuration option.</t>
+  </si>
+  <si>
+    <t>// You can read more here:</t>
+  </si>
+  <si>
+    <t>// https://on.cypress.io/plugins-guide</t>
+  </si>
+  <si>
+    <t>// This function is called when a project is opened or re-opened (e.g. due to</t>
+  </si>
+  <si>
+    <t>// the project's config changing)</t>
+  </si>
+  <si>
+    <t>/**</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>@type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>{Cypress.PluginConfig}</t>
+    </r>
+  </si>
+  <si>
+    <t> */</t>
+  </si>
+  <si>
+    <t>// eslint-disable-next-line no-unused-vars</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -554,8 +710,29 @@
       <family val="3"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF808080"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF569CD6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4EC9B0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -565,6 +742,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1E1E1E"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,7 +764,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -601,6 +784,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1067,10 +1253,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B26"/>
+  <dimension ref="A3:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1214,7 +1400,94 @@
         <v>67</v>
       </c>
     </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="11"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>